--- a/Source/Paper 2 - Systematic Review/Systematic Review searches/finalArticleList.xlsx
+++ b/Source/Paper 2 - Systematic Review/Systematic Review searches/finalArticleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Documents/PhD/Source/Paper 2 - Systematic Review/Systematic Review searches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED787F-B62E-C44A-BD58-155ED4D58404}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D55649-BD2B-F449-ADAA-5328D8D3059C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finalArticleList" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Final List" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1527">
   <si>
     <t>Title</t>
   </si>
@@ -3816,9 +3817,6 @@
     <t>AV-1451 PET imaging of tau pathology in preclinical Alzheimer disease: Defining a summary measure.</t>
   </si>
   <si>
-    <t>Neuroimaging Feature Terminology: A Controlled Terminology for the Annotation of Brain Imaging Features.</t>
-  </si>
-  <si>
     <t>Feature selective temporal prediction of Alzheimer's disease progression using hippocampus surface morphometry.</t>
   </si>
   <si>
@@ -4570,6 +4568,51 @@
   </si>
   <si>
     <t>A Comparison of Syntax, Semantics, and Pragmatics in Spoken Language among Residents with Alzheimer’s Disease in Managed-Care Facilities</t>
+  </si>
+  <si>
+    <t>Aided Diagnosis of Dementia Type through Computer-Based Analysis of Spontaneous Speech</t>
+  </si>
+  <si>
+    <t>Automatic speech recognition in the diagnosis of primary progressive aphasia</t>
+  </si>
+  <si>
+    <t>Changes in Style in Authors with Alzheimer’s Disease</t>
+  </si>
+  <si>
+    <t>Data-driven classification of patients with primary progressive aphasia</t>
+  </si>
+  <si>
+    <t>Enriching Complex Networks withWord Embeddings for Detecting Mild Cognitive Impairment from Speech Transcripts</t>
+  </si>
+  <si>
+    <t>Latent information in fluency lists predicts functional decline in persons at risk for Alzheimer disease</t>
+  </si>
+  <si>
+    <t>Longitudinal detection of dementia through lexical and syntactic changes in writing: a case study of three British novelists</t>
+  </si>
+  <si>
+    <t>Microlinguistic aspects of the oral narrative in patients with Alzheimer’s disease</t>
+  </si>
+  <si>
+    <t>Predicting Dementia Screening and Staging Scores From Semantic Verbal Fluency Performance</t>
+  </si>
+  <si>
+    <t>Predicting mild cognitive impairment from spontaneous spoken utterances</t>
+  </si>
+  <si>
+    <t>Propositional Idea Density in women’s written language over the lifespan: Computerized analysis</t>
+  </si>
+  <si>
+    <t>Social Markers of Mild Cognitive Impairment: Proportion of Word Counts in Free Conversational Speech</t>
+  </si>
+  <si>
+    <t>SPOKEN LANGUAGE BIOMARKERS FOR DETECTING COGNITIVE IMPAIRMENT</t>
+  </si>
+  <si>
+    <t>The Effect of Heterogeneous Data for Alzheimer’s Disease Detection from Speech</t>
+  </si>
+  <si>
+    <t>Word retrieval in connected speech in Alzheimer’s disease: a review with meta-analyses</t>
   </si>
 </sst>
 </file>
@@ -4712,7 +4755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4916,6 +4959,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -5077,7 +5126,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -5086,6 +5135,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5441,10 +5492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1493"/>
+  <dimension ref="A1:B1492"/>
   <sheetViews>
-    <sheetView topLeftCell="A1272" workbookViewId="0">
-      <selection activeCell="A1297" sqref="A1297"/>
+    <sheetView tabSelected="1" topLeftCell="A1199" workbookViewId="0">
+      <selection activeCell="A1201" sqref="A1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5459,7 +5510,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5489,7 +5540,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -5534,7 +5585,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -5549,7 +5600,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -5579,7 +5630,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -5794,7 +5845,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
@@ -5874,7 +5925,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
@@ -5884,7 +5935,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -5914,7 +5965,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
@@ -5934,7 +5985,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
@@ -6004,12 +6055,12 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
@@ -6104,7 +6155,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
@@ -6144,7 +6195,7 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
@@ -6169,7 +6220,7 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
@@ -6244,7 +6295,7 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
@@ -6294,7 +6345,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
@@ -6314,7 +6365,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -6344,7 +6395,7 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
@@ -6364,7 +6415,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
@@ -6374,7 +6425,7 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
@@ -6394,12 +6445,12 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
@@ -6439,7 +6490,7 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
@@ -6459,7 +6510,7 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
@@ -6514,7 +6565,7 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
@@ -6559,7 +6610,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
@@ -6584,7 +6635,7 @@
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
@@ -6594,7 +6645,7 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
@@ -6614,7 +6665,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
@@ -6624,7 +6675,7 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
@@ -6649,7 +6700,7 @@
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
@@ -6704,7 +6755,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -6734,7 +6785,7 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
@@ -6754,7 +6805,7 @@
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
@@ -6789,7 +6840,7 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
@@ -6804,7 +6855,7 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
@@ -6829,12 +6880,12 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
@@ -6899,12 +6950,12 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
@@ -6944,7 +6995,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
@@ -6954,7 +7005,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
@@ -6974,7 +7025,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -7009,7 +7060,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -7135,7 +7186,7 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
@@ -7155,7 +7206,7 @@
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
@@ -7170,7 +7221,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
@@ -7190,12 +7241,12 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
@@ -7250,7 +7301,7 @@
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
@@ -7280,7 +7331,7 @@
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
@@ -7360,7 +7411,7 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
@@ -7380,7 +7431,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
@@ -7440,12 +7491,12 @@
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
@@ -7560,12 +7611,12 @@
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
@@ -7580,7 +7631,7 @@
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
@@ -7600,7 +7651,7 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
@@ -7625,7 +7676,7 @@
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
@@ -7650,12 +7701,12 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
@@ -7715,7 +7766,7 @@
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
@@ -7785,7 +7836,7 @@
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
@@ -7835,7 +7886,7 @@
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
@@ -7865,7 +7916,7 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
@@ -7910,7 +7961,7 @@
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
@@ -7960,7 +8011,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -8020,7 +8071,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -8040,7 +8091,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -8236,17 +8287,17 @@
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="558" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
@@ -8286,7 +8337,7 @@
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
@@ -8311,12 +8362,12 @@
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
@@ -8326,12 +8377,12 @@
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
@@ -8346,7 +8397,7 @@
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
@@ -8371,12 +8422,12 @@
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
@@ -8401,7 +8452,7 @@
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
@@ -8411,7 +8462,7 @@
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
@@ -8421,12 +8472,12 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
@@ -8451,7 +8502,7 @@
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
@@ -8461,7 +8512,7 @@
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
@@ -8496,17 +8547,17 @@
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
@@ -8596,7 +8647,7 @@
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
@@ -8616,7 +8667,7 @@
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
@@ -8701,7 +8752,7 @@
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
@@ -8726,7 +8777,7 @@
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
@@ -8796,7 +8847,7 @@
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
@@ -8846,12 +8897,12 @@
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
@@ -8901,7 +8952,7 @@
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
@@ -8971,7 +9022,7 @@
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
@@ -8991,7 +9042,7 @@
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
@@ -9001,7 +9052,7 @@
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
@@ -9011,7 +9062,7 @@
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
@@ -9026,7 +9077,7 @@
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
@@ -9036,7 +9087,7 @@
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
@@ -9061,12 +9112,12 @@
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
@@ -9111,7 +9162,7 @@
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
@@ -9146,12 +9197,12 @@
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
@@ -9171,7 +9222,7 @@
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
@@ -9186,7 +9237,7 @@
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
@@ -9206,12 +9257,12 @@
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
@@ -9221,7 +9272,7 @@
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
@@ -9316,7 +9367,7 @@
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
@@ -9326,12 +9377,12 @@
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
@@ -9351,7 +9402,7 @@
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
@@ -9366,7 +9417,7 @@
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
@@ -9396,7 +9447,7 @@
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
@@ -9421,7 +9472,7 @@
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
@@ -9446,7 +9497,7 @@
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
@@ -9516,7 +9567,7 @@
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
@@ -9526,7 +9577,7 @@
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.2">
@@ -9571,7 +9622,7 @@
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.2">
@@ -9611,12 +9662,12 @@
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.2">
@@ -9626,7 +9677,7 @@
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.2">
@@ -9676,7 +9727,7 @@
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.2">
@@ -9686,7 +9737,7 @@
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.2">
@@ -9696,7 +9747,7 @@
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.2">
@@ -9705,32 +9756,32 @@
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A851" t="s">
+      <c r="A851" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A852" t="s">
+      <c r="A852" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A853" t="s">
+      <c r="A853" s="1" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A854" t="s">
+      <c r="A854" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A855" t="s">
+      <c r="A855" s="1" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A856" t="s">
+      <c r="A856" s="1" t="s">
         <v>475</v>
       </c>
     </row>
@@ -9740,7 +9791,7 @@
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A858" t="s">
+      <c r="A858" s="1" t="s">
         <v>573</v>
       </c>
     </row>
@@ -9750,92 +9801,92 @@
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A860" t="s">
+      <c r="A860" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A861" t="s">
+      <c r="A861" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A862" t="s">
+      <c r="A862" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A863" t="s">
+      <c r="A863" s="1" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A864" t="s">
+      <c r="A864" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A865" t="s">
+      <c r="A865" s="1" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A866" t="s">
+      <c r="A866" s="1" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A867" t="s">
-        <v>1300</v>
+      <c r="A867" s="1" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A868" t="s">
+      <c r="A868" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A869" t="s">
+      <c r="A869" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A870" t="s">
+      <c r="A870" s="1" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A871" t="s">
+      <c r="A871" s="1" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A872" t="s">
-        <v>1461</v>
+      <c r="A872" s="1" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A873" t="s">
+      <c r="A873" s="1" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A874" t="s">
+      <c r="A874" s="1" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A875" t="s">
+      <c r="A875" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A876" t="s">
+      <c r="A876" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A877" t="s">
+      <c r="A877" s="1" t="s">
         <v>859</v>
       </c>
     </row>
@@ -9845,262 +9896,262 @@
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A879" t="s">
+      <c r="A879" s="1" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A880" t="s">
+      <c r="A880" s="1" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A881" t="s">
+      <c r="A881" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A882" t="s">
+      <c r="A882" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A883" t="s">
+      <c r="A883" s="1" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A884" t="s">
+      <c r="A884" s="1" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A885" t="s">
+      <c r="A885" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A886" t="s">
-        <v>1362</v>
+      <c r="A886" s="3" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A887" t="s">
+      <c r="A887" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A888" t="s">
+      <c r="A888" s="3" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A889" t="s">
+      <c r="A889" s="1" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A890" t="s">
+      <c r="A890" s="1" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A891" t="s">
-        <v>1305</v>
+      <c r="A891" s="1" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A892" t="s">
+      <c r="A892" s="1" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A893" t="s">
+      <c r="A893" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A894" t="s">
+      <c r="A894" s="1" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A895" t="s">
+      <c r="A895" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A896" t="s">
+      <c r="A896" s="1" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A897" t="s">
+      <c r="A897" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A898" t="s">
+      <c r="A898" s="1" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A899" t="s">
+      <c r="A899" s="1" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A900" t="s">
+      <c r="A900" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A901" t="s">
+      <c r="A901" s="1" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A902" t="s">
+      <c r="A902" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A903" t="s">
-        <v>1440</v>
+      <c r="A903" s="1" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A904" t="s">
+      <c r="A904" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A905" t="s">
+      <c r="A905" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A906" t="s">
+      <c r="A906" s="1" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A907" t="s">
-        <v>1288</v>
+      <c r="A907" s="1" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A908" t="s">
+      <c r="A908" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A909" t="s">
+      <c r="A909" s="1" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A910" t="s">
+      <c r="A910" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A911" t="s">
-        <v>1377</v>
+      <c r="A911" s="1" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A912" t="s">
+      <c r="A912" s="3" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A913" t="s">
+      <c r="A913" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A914" t="s">
+      <c r="A914" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A915" t="s">
+      <c r="A915" s="1" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A916" t="s">
+      <c r="A916" s="1" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A917" t="s">
+      <c r="A917" s="1" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A918" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A919" t="s">
+      <c r="A919" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A920" t="s">
+      <c r="A920" s="1" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="921" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A921" t="s">
+      <c r="A921" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A922" t="s">
+      <c r="A922" s="1" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A923" t="s">
+      <c r="A923" s="1" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A924" t="s">
+      <c r="A924" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A925" t="s">
+      <c r="A925" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A926" t="s">
+      <c r="A926" s="1" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A927" t="s">
+      <c r="A927" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A928" t="s">
+      <c r="A928" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A929" t="s">
+      <c r="A929" s="2" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A930" t="s">
+      <c r="A930" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -10110,152 +10161,152 @@
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A932" t="s">
+      <c r="A932" s="1" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A933" t="s">
+      <c r="A933" s="1" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A934" t="s">
+      <c r="A934" s="1" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A935" t="s">
+      <c r="A935" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A936" t="s">
+      <c r="A936" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A937" t="s">
-        <v>1431</v>
+      <c r="A937" s="1" t="s">
+        <v>1430</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A938" t="s">
+      <c r="A938" s="1" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A939" t="s">
+      <c r="A939" s="1" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A940" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A941" t="s">
+      <c r="A941" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A942" t="s">
+      <c r="A942" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A943" t="s">
+      <c r="A943" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A944" t="s">
+      <c r="A944" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A945" t="s">
+      <c r="A945" s="3" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A946" t="s">
+      <c r="A946" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A947" t="s">
+      <c r="A947" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A948" t="s">
+      <c r="A948" s="1" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A949" t="s">
+      <c r="A949" s="1" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A950" t="s">
+      <c r="A950" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A951" t="s">
+      <c r="A951" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A952" t="s">
+      <c r="A952" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A953" t="s">
+      <c r="A953" s="1" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A954" t="s">
+      <c r="A954" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A955" t="s">
+      <c r="A955" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A956" t="s">
+      <c r="A956" s="1" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A957" t="s">
+      <c r="A957" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A958" t="s">
+      <c r="A958" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A959" t="s">
+      <c r="A959" s="1" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A960" t="s">
+      <c r="A960" s="1" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A961" t="s">
+      <c r="A961" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -10265,92 +10316,92 @@
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A963" t="s">
+      <c r="A963" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A964" t="s">
+      <c r="A964" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A965" t="s">
+      <c r="A965" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A966" t="s">
+      <c r="A966" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A967" t="s">
+      <c r="A967" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A968" t="s">
+      <c r="A968" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A969" t="s">
+      <c r="A969" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A970" t="s">
+      <c r="A970" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A971" t="s">
-        <v>1382</v>
+      <c r="A971" s="1" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A972" t="s">
+      <c r="A972" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A973" t="s">
+      <c r="A973" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A974" t="s">
-        <v>1313</v>
+      <c r="A974" s="1" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A975" t="s">
+      <c r="A975" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A976" t="s">
+      <c r="A976" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A977" t="s">
+      <c r="A977" s="1" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A978" t="s">
-        <v>1330</v>
+      <c r="A978" s="1" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A979" t="s">
+      <c r="A979" s="1" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A980" t="s">
+      <c r="A980" s="1" t="s">
         <v>384</v>
       </c>
     </row>
@@ -10360,382 +10411,383 @@
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A982" t="s">
-        <v>1325</v>
+      <c r="A982" s="1" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A983" t="s">
+      <c r="A983" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A984" t="s">
+      <c r="A984" s="1" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A985" t="s">
+      <c r="A985" s="1" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A986" t="s">
+      <c r="A986" s="1" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A987" t="s">
-        <v>1470</v>
+      <c r="A987" s="1" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A988" t="s">
+      <c r="A988" s="1" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A989" t="s">
+      <c r="A989" s="1" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A990" t="s">
+      <c r="A990" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A991" t="s">
+      <c r="A991" s="1" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A992" t="s">
+      <c r="A992" s="1" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A993" t="s">
+      <c r="A993" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A994" t="s">
+      <c r="A994" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A995" t="s">
-        <v>1277</v>
+      <c r="A995" s="1" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A996" t="s">
+      <c r="A996" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A997" t="s">
+      <c r="A997" s="1" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A998" t="s">
+      <c r="A998" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A999" t="s">
+      <c r="A999" s="1" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1000" t="s">
+      <c r="A1000" s="1" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1001" t="s">
+      <c r="A1001" s="2" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1002" t="s">
+      <c r="A1002" s="1" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1003" t="s">
+      <c r="A1003" s="1" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1004" t="s">
+      <c r="A1004" s="1" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1005" t="s">
+      <c r="A1005" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1006" t="s">
+      <c r="A1006" s="1" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1007" t="s">
+      <c r="A1007" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1008" t="s">
+      <c r="A1008" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1009" t="s">
+      <c r="A1009" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1010" t="s">
+      <c r="A1010" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1011" t="s">
-        <v>1309</v>
+      <c r="A1011" s="1" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1012" t="s">
+      <c r="A1012" s="1" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1013" t="s">
+      <c r="A1013" s="1" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1014" t="s">
+      <c r="A1014" s="1" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1015" t="s">
+      <c r="A1015" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1016" t="s">
+      <c r="A1016" s="1" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1017" t="s">
+      <c r="A1017" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1018" t="s">
+      <c r="A1018" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1019" t="s">
+      <c r="A1019" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1020" t="s">
+      <c r="A1020" s="1" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1021" t="s">
+      <c r="A1021" s="1" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1022" t="s">
-        <v>1386</v>
+      <c r="A1022" s="1" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1023" t="s">
+      <c r="A1023" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1024" t="s">
+      <c r="A1024" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1025" t="s">
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1026" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1027" t="s">
+      <c r="B1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1028" t="s">
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1029" t="s">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1030" t="s">
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1031" t="s">
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1032" t="s">
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1033" t="s">
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1034" t="s">
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1035" t="s">
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1036" t="s">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1037" t="s">
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1038" t="s">
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1039" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1040" t="s">
-        <v>1346</v>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1041" t="s">
-        <v>1316</v>
+      <c r="A1041" s="1" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1042" t="s">
+      <c r="A1042" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1043" t="s">
+      <c r="A1043" s="1" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1044" t="s">
-        <v>1285</v>
+      <c r="A1044" s="1" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1045" t="s">
+      <c r="A1045" s="1" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1046" t="s">
+      <c r="A1046" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1047" t="s">
+      <c r="A1047" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1048" t="s">
-        <v>1337</v>
+      <c r="A1048" s="1" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1049" t="s">
+      <c r="A1049" s="1" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1050" t="s">
-        <v>1388</v>
+      <c r="A1050" s="1" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1051" t="s">
+      <c r="A1051" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1052" t="s">
+      <c r="A1052" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1053" t="s">
-        <v>1401</v>
+      <c r="A1053" s="1" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1054" t="s">
-        <v>1361</v>
+      <c r="A1054" s="1" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1055" t="s">
+      <c r="A1055" s="1" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1056" t="s">
-        <v>1331</v>
+      <c r="A1056" s="1" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1057" t="s">
+      <c r="A1057" s="1" t="s">
         <v>624</v>
       </c>
     </row>
@@ -10745,32 +10797,32 @@
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1059" t="s">
+      <c r="A1059" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1060" t="s">
+      <c r="A1060" s="1" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1061" t="s">
+      <c r="A1061" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1062" t="s">
-        <v>1442</v>
+      <c r="A1062" s="1" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1063" t="s">
+      <c r="A1063" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1064" t="s">
+      <c r="A1064" s="1" t="s">
         <v>717</v>
       </c>
     </row>
@@ -10780,2148 +10832,2143 @@
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1066" t="s">
+      <c r="A1066" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1067" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1068" t="s">
+    <row r="1067" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1067" s="1" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1069" t="s">
-        <v>695</v>
+      <c r="A1069" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1070" t="s">
-        <v>428</v>
+      <c r="A1070" s="1" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1071" t="s">
-        <v>1182</v>
+      <c r="A1071" s="1" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1072" t="s">
-        <v>1332</v>
+      <c r="A1072" s="1" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1073" t="s">
-        <v>1267</v>
+      <c r="A1073" s="1" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1074" t="s">
-        <v>1297</v>
+      <c r="A1074" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1075" t="s">
-        <v>758</v>
+      <c r="A1075" s="1" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1076" t="s">
-        <v>1047</v>
+      <c r="A1076" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1077" t="s">
-        <v>605</v>
+      <c r="A1077" s="1" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1078" t="s">
-        <v>1430</v>
+      <c r="A1078" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1079" t="s">
-        <v>587</v>
+      <c r="A1079" s="4" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1080" s="4" t="s">
-        <v>1012</v>
+      <c r="A1080" s="1" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1081" t="s">
-        <v>1176</v>
+      <c r="A1081" s="1" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1082" t="s">
-        <v>1464</v>
+      <c r="A1082" s="1" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1083" t="s">
-        <v>1335</v>
+      <c r="A1083" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1084" t="s">
-        <v>463</v>
+      <c r="A1084" s="1" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1085" t="s">
-        <v>651</v>
+      <c r="A1085" s="1" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1086" t="s">
+      <c r="A1086" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1087" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1088" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1089" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1090" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1092" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1093" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1094" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1095" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1096" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1097" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1098" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1099" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1100" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1103" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141" s="1" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1087" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1088" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1089" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1090" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1091" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1092" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1093" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1094" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1095" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1096" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1097" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1098" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1099" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1100" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1101" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1102" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1103" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1104" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1105" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1106" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1107" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1108" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1109" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1110" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1112" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1113" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1114" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1115" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1116" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1117" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1118" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1119" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1120" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1121" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1122" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1123" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1124" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1125" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1126" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1127" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1128" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1129" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1130" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1131" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1132" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1133" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1134" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1136" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1137" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1138" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1139" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1140" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1141" t="s">
-        <v>1354</v>
-      </c>
-    </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1142" t="s">
-        <v>1328</v>
+      <c r="A1142" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1143" t="s">
-        <v>87</v>
+      <c r="A1143" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1144" t="s">
-        <v>293</v>
+      <c r="A1144" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1145" t="s">
-        <v>382</v>
+      <c r="A1145" s="1" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1146" t="s">
-        <v>896</v>
+      <c r="A1146" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1147" t="s">
-        <v>507</v>
+      <c r="A1147" s="1" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1148" t="s">
-        <v>961</v>
+      <c r="A1148" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1149" t="s">
-        <v>423</v>
+      <c r="A1149" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1150" t="s">
-        <v>83</v>
+      <c r="A1150" s="1" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1151" t="s">
-        <v>1272</v>
+      <c r="A1151" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1152" t="s">
-        <v>518</v>
+      <c r="A1152" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1153" t="s">
-        <v>210</v>
+      <c r="A1153" s="1" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1154" t="s">
-        <v>1393</v>
+      <c r="A1154" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1155" t="s">
-        <v>432</v>
+      <c r="A1155" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1156" t="s">
-        <v>157</v>
+      <c r="A1156" s="1" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1157" t="s">
-        <v>1194</v>
+      <c r="A1157" s="1" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1158" t="s">
+      <c r="A1158" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1159" t="s">
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1160" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1161" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1162" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1163" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1164" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1165" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1167" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1168" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1169" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1170" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1171" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1172" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1173" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1174" t="s">
-        <v>1179</v>
-      </c>
-    </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1175" t="s">
-        <v>1348</v>
+      <c r="A1175" s="1" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1176" t="s">
-        <v>1227</v>
+      <c r="A1176" s="1" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1177" t="s">
-        <v>1177</v>
+      <c r="A1177" s="1" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1178" t="s">
-        <v>1065</v>
+      <c r="A1178" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1179" t="s">
-        <v>679</v>
+      <c r="A1179" s="1" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1180" t="s">
-        <v>1308</v>
+      <c r="A1180" s="1" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1181" t="s">
-        <v>1292</v>
+      <c r="A1181" s="1" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1182" t="s">
-        <v>1390</v>
+      <c r="A1182" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1183" t="s">
-        <v>438</v>
+      <c r="A1183" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1184" t="s">
-        <v>396</v>
+      <c r="A1184" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1185" t="s">
-        <v>240</v>
+      <c r="A1185" s="1" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1186" t="s">
-        <v>1445</v>
+      <c r="A1186" s="1" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1187" t="s">
-        <v>950</v>
+      <c r="A1187" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1188" t="s">
-        <v>474</v>
+      <c r="A1188" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1189" t="s">
-        <v>32</v>
+      <c r="A1189" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1190" t="s">
-        <v>442</v>
+      <c r="A1190" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1191" t="s">
-        <v>504</v>
+      <c r="A1191" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1192" t="s">
-        <v>308</v>
+      <c r="A1192" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1193" t="s">
-        <v>502</v>
+      <c r="A1193" s="1" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1194" t="s">
-        <v>928</v>
+      <c r="A1194" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1195" t="s">
-        <v>229</v>
+      <c r="A1195" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1196" t="s">
-        <v>281</v>
+      <c r="A1196" s="1" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1197" t="s">
-        <v>860</v>
+      <c r="A1197" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1198" t="s">
-        <v>27</v>
+      <c r="A1198" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1199" t="s">
-        <v>282</v>
+      <c r="A1199" s="1" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1200" t="s">
-        <v>882</v>
+      <c r="A1200" s="1" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1201" t="s">
-        <v>1462</v>
+      <c r="A1201" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>149</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>870</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>692</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>897</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>1405</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>666</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>980</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>1059</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>217</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>571</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>202</v>
+        <v>371</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>371</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>886</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>486</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1220" t="s">
-        <v>224</v>
+      <c r="A1220" s="1" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>753</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>829</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1223" t="s">
-        <v>889</v>
+      <c r="A1223" s="1" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>1225</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>734</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>1214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>201</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>1015</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>657</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>1119</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>433</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>1274</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>1411</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>326</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>205</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>943</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>437</v>
+        <v>658</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>658</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>1286</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>1315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>292</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>421</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>637</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1245" t="s">
-        <v>780</v>
+      <c r="A1245" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>259</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>705</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>185</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>1104</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>940</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>203</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>402</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>964</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>164</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>623</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>214</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>867</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>1073</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>915</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>1041</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>1294</v>
+        <v>216</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>55</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>595</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>53</v>
+        <v>545</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>545</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>1412</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>1479</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>499</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>632</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>69</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>901</v>
+        <v>514</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>514</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>739</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>790</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>189</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1279" t="s">
-        <v>653</v>
+      <c r="A1279" s="2" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1280" s="2" t="s">
-        <v>1496</v>
+      <c r="A1280" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>935</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>1152</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>1432</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>289</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>1475</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1286" t="s">
-        <v>854</v>
+      <c r="A1286" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1287" s="3" t="s">
-        <v>129</v>
+      <c r="A1287" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>206</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>1483</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>124</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>1311</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>1419</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>1376</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>221</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1296" t="s">
-        <v>1027</v>
+      <c r="A1296" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1297" s="2" t="s">
-        <v>317</v>
+      <c r="A1297" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>324</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>1031</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>852</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>1128</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>1306</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>365</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>833</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>277</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>1443</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>511</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>1385</v>
+        <v>604</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>604</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>112</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>457</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>278</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>1107</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>1283</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>422</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>1375</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>1123</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>90</v>
+        <v>548</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>548</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>786</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>858</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>764</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>954</v>
+        <v>541</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>482</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1333" t="s">
-        <v>222</v>
+      <c r="A1333" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1334" s="3" t="s">
-        <v>28</v>
+      <c r="A1334" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>1055</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1336" t="s">
-        <v>524</v>
+      <c r="A1336" s="4" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>1076</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>1484</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>849</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>273</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>644</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>1121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>127</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>478</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>1404</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>375</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>128</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>1169</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>1459</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>707</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>257</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>1433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>461</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>583</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>95</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>1303</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>473</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>998</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>1424</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>1112</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>1139</v>
+        <v>521</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>521</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>820</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>1064</v>
+        <v>564</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>564</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>135</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>926</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>279</v>
+        <v>684</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>684</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>1102</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>1466</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>1135</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>1016</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>589</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>11</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>638</v>
+        <v>685</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>685</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>462</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>1400</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>708</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>616</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>1293</v>
+        <v>387</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>387</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>1324</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>728</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>1125</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>232</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>910</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>804</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>297</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>1188</v>
+        <v>397</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>472</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>220</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>471</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>1451</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>995</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>1018</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>667</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>140</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>1403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>501</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1409" t="s">
-        <v>151</v>
+      <c r="A1409" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>344</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>227</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>672</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>470</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>796</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>1090</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>50</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>1409</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>183</v>
+        <v>706</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>714</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>484</v>
+        <v>559</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>559</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>1004</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>557</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>1198</v>
+        <v>551</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>551</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>696</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>880</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>248</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>85</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>1203</v>
+        <v>429</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>429</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>1039</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>626</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1436" t="s">
-        <v>102</v>
+      <c r="A1436" s="3" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1437" s="3" t="s">
-        <v>1252</v>
+      <c r="A1437" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>579</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>1008</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>1452</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>990</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>1195</v>
+        <v>542</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>531</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>921</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>731</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>922</v>
+        <v>347</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>347</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>574</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>1096</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>165</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>598</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>1063</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>1383</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>1134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>105</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>890</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>592</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>1011</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>254</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>690</v>
+        <v>529</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>529</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>364</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1468" t="s">
-        <v>108</v>
+      <c r="A1468" s="4" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>1302</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>767</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>1345</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>1399</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>1196</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>1485</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>1417</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
-        <v>1478</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>1446</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1478" t="s">
-        <v>200</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>1091</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>730</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>656</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>572</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>986</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>1312</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>871</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>523</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>988</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>490</v>
+        <v>941</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>941</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>1029</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1491" t="s">
-        <v>1060</v>
+      <c r="A1491" s="1" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1492" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1493" s="1" t="s">
         <v>840</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A2081">
-    <sortCondition ref="A1:A2081"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A2080">
+    <sortCondition ref="A1:A2080"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12929,10 +12976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12942,12 +12989,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2">
@@ -12956,7 +13003,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3">
@@ -12965,7 +13012,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4">
@@ -13029,7 +13076,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -13079,7 +13126,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -13119,7 +13166,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -13129,12 +13176,12 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -13164,17 +13211,17 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -13184,7 +13231,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
@@ -13209,7 +13256,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -13234,7 +13281,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
@@ -13304,7 +13351,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
@@ -13354,12 +13401,12 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
@@ -13379,7 +13426,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
@@ -13395,6 +13442,116 @@
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>1526</v>
       </c>
     </row>
   </sheetData>
@@ -13404,10 +13561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E02ED9B-B1BD-5343-9EC9-482DF66DFA50}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13417,57 +13574,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>1512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>1525</v>
       </c>
     </row>
   </sheetData>
@@ -13477,10 +13714,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD670F-282D-4D4B-806E-31A3F2D5A43D}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13490,13 +13727,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1" t="s">
         <v>1498</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1499</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -13505,134 +13742,216 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>1454</v>
+      <c r="A3" s="6" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>984</v>
+      <c r="A4" s="6" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>617</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>117</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>492</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>147</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>374</v>
+      <c r="A9" s="6" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>288</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>508</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>1323</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>843</v>
+      <c r="A13" s="6" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>1017</v>
+      <c r="A14" s="6" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>204</v>
+      <c r="A15" s="6" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>1497</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>1505</v>
+      <c r="A21" s="7" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>1508</v>
+      <c r="A24" s="7" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>1509</v>
+      <c r="A25" s="7" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>1511</v>
+      <c r="A26" s="7" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>1512</v>
+      <c r="A27" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
-    <sortCondition ref="A2:A17"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Source/Paper 2 - Systematic Review/Systematic Review searches/finalArticleList.xlsx
+++ b/Source/Paper 2 - Systematic Review/Systematic Review searches/finalArticleList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Documents/PhD/Source/Paper 2 - Systematic Review/Systematic Review searches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3089FF0-811F-6D4E-BB0D-80282AC77A59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F5671-BBB2-EA45-876A-8C44274A51B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1514">
   <si>
     <t>Predicting Short-term MCI-to-AD Progression Using Imaging, CSF, Genetic Factors, Cognitive Resilience, and Demographics</t>
   </si>
@@ -13116,10 +13116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD670F-282D-4D4B-806E-31A3F2D5A43D}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13333,18 +13333,13 @@
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A42" s="5" t="s">
         <v>1299</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A45">
-    <sortCondition ref="A1:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A44">
+    <sortCondition ref="A1:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Source/Paper 2 - Systematic Review/Systematic Review searches/finalArticleList.xlsx
+++ b/Source/Paper 2 - Systematic Review/Systematic Review searches/finalArticleList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Documents/PhD/Source/Paper 2 - Systematic Review/Systematic Review searches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F5671-BBB2-EA45-876A-8C44274A51B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5A9F8F-7530-6440-A086-5A7E19FD4003}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="1513">
   <si>
     <t>Predicting Short-term MCI-to-AD Progression Using Imaging, CSF, Genetic Factors, Cognitive Resilience, and Demographics</t>
   </si>
@@ -4564,9 +4564,6 @@
   </si>
   <si>
     <t>Propositional Idea Density in women’s written language over the lifespan: Computerized analysis</t>
-  </si>
-  <si>
-    <t>Social Markers of Mild Cognitive Impairment: Proportion of Word Counts in Free Conversational Speech</t>
   </si>
   <si>
     <t>SPOKEN LANGUAGE BIOMARKERS FOR DETECTING COGNITIVE IMPAIRMENT</t>
@@ -5092,7 +5089,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -5103,6 +5100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5460,7 +5458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1490"/>
   <sheetViews>
-    <sheetView topLeftCell="A908" workbookViewId="0">
+    <sheetView topLeftCell="A1296" workbookViewId="0">
       <selection activeCell="A931" sqref="A931"/>
     </sheetView>
   </sheetViews>
@@ -12973,10 +12971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E02ED9B-B1BD-5343-9EC9-482DF66DFA50}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13104,11 +13102,6 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>1513</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13116,10 +13109,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD670F-282D-4D4B-806E-31A3F2D5A43D}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13288,58 +13281,53 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>1512</v>
+      <c r="A35" s="5" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>1074</v>
+      <c r="A36" s="10" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>1489</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>1513</v>
+      <c r="A38" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>218</v>
+      <c r="A39" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>342</v>
+      <c r="A40" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A41" s="5" t="s">
         <v>1299</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A44">
-    <sortCondition ref="A1:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A43">
+    <sortCondition ref="A1:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
